--- a/Assets/Data/Items.xlsx
+++ b/Assets/Data/Items.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Id</t>
   </si>
@@ -22,34 +22,19 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Rank</t>
-  </si>
-  <si>
-    <t>Mt</t>
-  </si>
-  <si>
-    <t>Hit</t>
-  </si>
-  <si>
-    <t>Cri</t>
-  </si>
-  <si>
-    <t>MinRange</t>
-  </si>
-  <si>
-    <t>MaxRange</t>
-  </si>
-  <si>
-    <t>UseCount</t>
-  </si>
-  <si>
     <t>Worth</t>
   </si>
   <si>
-    <t>Exp</t>
+    <t>Feature</t>
   </si>
   <si>
-    <t>ライト</t>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>回復薬</t>
   </si>
 </sst>
 </file>
@@ -57,10 +42,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -71,44 +56,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,44 +138,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -186,30 +164,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,13 +209,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,169 +371,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,6 +400,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -483,15 +483,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -501,17 +492,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,145 +508,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1017,18 +1002,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="21" max="21" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1047,55 +1032,25 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2">
-        <v>901</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>40</v>
-      </c>
-      <c r="J2">
-        <v>960</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
